--- a/biology/Botanique/Punica/Punica.xlsx
+++ b/biology/Botanique/Punica/Punica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Punica est un genre d'arbres fruitiers à feuilles caduques ne comportant que deux espèces. La plus connue est le grenadier commun (Punica granatum).
 La seule autre espèce du genre, le grenadier de Socotra (Punica protopunica) est endémique de l'île de Socotra. Il se différencie par ses fleurs roses (rouges pour le grenadier commun) et ses fruits plus petits et moins sucrés.
@@ -512,9 +524,11 @@
           <t>Usage médicinal</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'écorce du grenadier a été autrefois utilisée comme vermifuge (antihelminthique). Le docteur Rontet, médecin à Anvers, la décrivait comme très efficace « contre les tænia lata et silium, mais encore contre les oxyures vermiculaires et les ascarides lombricoïdes » (Ascaris lumbricoides)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorce du grenadier a été autrefois utilisée comme vermifuge (antihelminthique). Le docteur Rontet, médecin à Anvers, la décrivait comme très efficace « contre les tænia lata et silium, mais encore contre les oxyures vermiculaires et les ascarides lombricoïdes » (Ascaris lumbricoides).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Punica granatum L. - grenadier commun
 Punica protopunica Balf.f. - grenadier de Socotra</t>
